--- a/data/pca/factorExposure/factorExposure_2014-07-28.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-07-28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,21 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,30 +732,60 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>0.008078665222439954</v>
+        <v>0.01902634926454672</v>
       </c>
       <c r="C2">
-        <v>-0.1300650023676585</v>
+        <v>-0.07169932436131801</v>
       </c>
       <c r="D2">
-        <v>0.04117743339325573</v>
+        <v>0.03450378873939756</v>
       </c>
       <c r="E2">
-        <v>0.2238074753300405</v>
+        <v>0.02215022761392759</v>
       </c>
       <c r="F2">
-        <v>-0.04378417317673791</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.02346791934454589</v>
+      </c>
+      <c r="G2">
+        <v>0.1588734139594798</v>
+      </c>
+      <c r="H2">
+        <v>0.03736230917590339</v>
+      </c>
+      <c r="I2">
+        <v>0.04145008933089179</v>
+      </c>
+      <c r="J2">
+        <v>0.1121576009728462</v>
+      </c>
+      <c r="K2">
+        <v>0.05482904626330994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -757,30 +802,60 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>0.01440130981839309</v>
+        <v>0.01957760425807339</v>
       </c>
       <c r="C4">
-        <v>-0.17030117576323</v>
+        <v>-0.1402861732984276</v>
       </c>
       <c r="D4">
-        <v>0.05025882306790817</v>
+        <v>0.06779971768992492</v>
       </c>
       <c r="E4">
-        <v>0.05188936941756522</v>
+        <v>0.01650750401984068</v>
       </c>
       <c r="F4">
-        <v>0.09306940068391432</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.06031666706017276</v>
+      </c>
+      <c r="G4">
+        <v>0.032570819443694</v>
+      </c>
+      <c r="H4">
+        <v>-0.04148581393559692</v>
+      </c>
+      <c r="I4">
+        <v>0.008594078078257766</v>
+      </c>
+      <c r="J4">
+        <v>0.09288163080249014</v>
+      </c>
+      <c r="K4">
+        <v>0.003021525703114668</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,230 +872,410 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>0.03650071328040961</v>
+        <v>0.04092457809357466</v>
       </c>
       <c r="C6">
-        <v>-0.07417162973379292</v>
+        <v>-0.08565604688314617</v>
       </c>
       <c r="D6">
-        <v>0.06281842829208101</v>
+        <v>0.02988663357988067</v>
       </c>
       <c r="E6">
-        <v>0.06650808528404649</v>
+        <v>-0.01919118159108571</v>
       </c>
       <c r="F6">
-        <v>0.00811861381193962</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.01772633228682493</v>
+      </c>
+      <c r="G6">
+        <v>0.04973974741268813</v>
+      </c>
+      <c r="H6">
+        <v>-0.06799987895371246</v>
+      </c>
+      <c r="I6">
+        <v>-0.04141683391853263</v>
+      </c>
+      <c r="J6">
+        <v>-0.002151426008031694</v>
+      </c>
+      <c r="K6">
+        <v>0.05590580782869609</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>0.02014469613943726</v>
+        <v>0.02014603833439206</v>
       </c>
       <c r="C7">
-        <v>-0.08548741476530045</v>
+        <v>-0.07386750851878054</v>
       </c>
       <c r="D7">
-        <v>0.04967447227969502</v>
+        <v>0.03494963307332002</v>
       </c>
       <c r="E7">
-        <v>0.00586239891794314</v>
+        <v>-0.0157234573972921</v>
       </c>
       <c r="F7">
-        <v>-0.003931704241492852</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.005215387713666122</v>
+      </c>
+      <c r="G7">
+        <v>-0.01490439441905469</v>
+      </c>
+      <c r="H7">
+        <v>-0.03133353161171247</v>
+      </c>
+      <c r="I7">
+        <v>0.01161273575691996</v>
+      </c>
+      <c r="J7">
+        <v>0.1039557988894507</v>
+      </c>
+      <c r="K7">
+        <v>0.02566272811333477</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.009263527762816309</v>
+        <v>0.001712693943100112</v>
       </c>
       <c r="C8">
-        <v>-0.07325701309033326</v>
+        <v>-0.06165023393256439</v>
       </c>
       <c r="D8">
-        <v>0.03513058772710678</v>
+        <v>0.04610840224728633</v>
       </c>
       <c r="E8">
-        <v>0.06596140659527029</v>
+        <v>-0.0244804278201684</v>
       </c>
       <c r="F8">
-        <v>0.02697690322564041</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.02969864994036537</v>
+      </c>
+      <c r="G8">
+        <v>0.06411519530113706</v>
+      </c>
+      <c r="H8">
+        <v>-0.05372672292668791</v>
+      </c>
+      <c r="I8">
+        <v>0.01984079043595495</v>
+      </c>
+      <c r="J8">
+        <v>0.01660606613725387</v>
+      </c>
+      <c r="K8">
+        <v>-0.01404039064155424</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>0.009852241094574086</v>
+        <v>0.01308358064791</v>
       </c>
       <c r="C9">
-        <v>-0.1201518619491364</v>
+        <v>-0.09865795289513571</v>
       </c>
       <c r="D9">
-        <v>0.05947441924367795</v>
+        <v>0.04286441311666062</v>
       </c>
       <c r="E9">
-        <v>0.009937840785307928</v>
+        <v>0.03033889492020444</v>
       </c>
       <c r="F9">
-        <v>0.02438507300470911</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.027159412259453</v>
+      </c>
+      <c r="G9">
+        <v>0.0219374467951924</v>
+      </c>
+      <c r="H9">
+        <v>-0.04157061881585481</v>
+      </c>
+      <c r="I9">
+        <v>0.03014555118169421</v>
+      </c>
+      <c r="J9">
+        <v>0.09861790499670013</v>
+      </c>
+      <c r="K9">
+        <v>0.01939973190967789</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>0.254099126719721</v>
+        <v>0.2450739136365187</v>
       </c>
       <c r="C10">
-        <v>0.07879061515248063</v>
+        <v>0.09640326098410879</v>
       </c>
       <c r="D10">
-        <v>-0.03188835682432462</v>
+        <v>-0.008055060293703384</v>
       </c>
       <c r="E10">
-        <v>-0.03109320388253347</v>
+        <v>-0.04844644542458595</v>
       </c>
       <c r="F10">
-        <v>0.03250749223974413</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.001635699903430694</v>
+      </c>
+      <c r="G10">
+        <v>0.02101108881615107</v>
+      </c>
+      <c r="H10">
+        <v>-0.05443743480451721</v>
+      </c>
+      <c r="I10">
+        <v>-0.02367873252045602</v>
+      </c>
+      <c r="J10">
+        <v>0.01817800983441553</v>
+      </c>
+      <c r="K10">
+        <v>-0.1479336948013608</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>0.007027583772367135</v>
+        <v>0.01771333085900285</v>
       </c>
       <c r="C11">
-        <v>-0.07000516612036188</v>
+        <v>-0.07796776694607103</v>
       </c>
       <c r="D11">
-        <v>0.03384460345686239</v>
+        <v>0.04226515649842903</v>
       </c>
       <c r="E11">
-        <v>-0.02571439020226987</v>
+        <v>0.01814761731525146</v>
       </c>
       <c r="F11">
-        <v>0.01127707314448628</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.004332801003900997</v>
+      </c>
+      <c r="G11">
+        <v>-0.01174574608811457</v>
+      </c>
+      <c r="H11">
+        <v>-0.01987278383664171</v>
+      </c>
+      <c r="I11">
+        <v>0.01394633438711327</v>
+      </c>
+      <c r="J11">
+        <v>0.02485626969992418</v>
+      </c>
+      <c r="K11">
+        <v>0.02694494902007103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>0.007244752679197732</v>
+        <v>0.01708160025786789</v>
       </c>
       <c r="C12">
-        <v>-0.04679087004318602</v>
+        <v>-0.0524086367454293</v>
       </c>
       <c r="D12">
-        <v>0.03583279915601705</v>
+        <v>0.02748336734984016</v>
       </c>
       <c r="E12">
-        <v>-0.02185993261981926</v>
+        <v>0.01169596250686831</v>
       </c>
       <c r="F12">
-        <v>-0.0156522389906412</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.01713896791782469</v>
+      </c>
+      <c r="G12">
+        <v>0.001213720003952294</v>
+      </c>
+      <c r="H12">
+        <v>-0.02964700362325856</v>
+      </c>
+      <c r="I12">
+        <v>-0.006334195647036908</v>
+      </c>
+      <c r="J12">
+        <v>0.02355616600165448</v>
+      </c>
+      <c r="K12">
+        <v>0.01194203380640984</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>0.01338525530444932</v>
+        <v>0.006587914432800678</v>
       </c>
       <c r="C13">
-        <v>-0.1256245270133353</v>
+        <v>-0.1085442193159862</v>
       </c>
       <c r="D13">
-        <v>0.07564431931341699</v>
+        <v>0.04461442452316113</v>
       </c>
       <c r="E13">
-        <v>0.03101631475713685</v>
+        <v>0.01719321122992875</v>
       </c>
       <c r="F13">
-        <v>-0.06283421031284807</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.02542889952912053</v>
+      </c>
+      <c r="G13">
+        <v>0.1583292164393661</v>
+      </c>
+      <c r="H13">
+        <v>-0.002001021485653889</v>
+      </c>
+      <c r="I13">
+        <v>-0.05977102763521816</v>
+      </c>
+      <c r="J13">
+        <v>0.2353564407562283</v>
+      </c>
+      <c r="K13">
+        <v>-0.1840284154744099</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>0.01398534983206692</v>
+        <v>0.02157267724012816</v>
       </c>
       <c r="C14">
-        <v>-0.08262400234488701</v>
+        <v>-0.07412133889277858</v>
       </c>
       <c r="D14">
-        <v>0.04967946554090005</v>
+        <v>0.04813020323232314</v>
       </c>
       <c r="E14">
-        <v>0.01560128884732022</v>
+        <v>-0.006791322283373093</v>
       </c>
       <c r="F14">
-        <v>-0.03662412531271373</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.03318424342834037</v>
+      </c>
+      <c r="G14">
+        <v>0.02722855437010906</v>
+      </c>
+      <c r="H14">
+        <v>-0.12370456670184</v>
+      </c>
+      <c r="I14">
+        <v>-0.02225642224098794</v>
+      </c>
+      <c r="J14">
+        <v>0.1791181451662724</v>
+      </c>
+      <c r="K14">
+        <v>0.01852424461907029</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>0.004423128778977626</v>
+        <v>0.003004566509037034</v>
       </c>
       <c r="C15">
-        <v>-0.0799108695526819</v>
+        <v>-0.07096557476788795</v>
       </c>
       <c r="D15">
-        <v>0.03043959321358817</v>
+        <v>0.03374193569554436</v>
       </c>
       <c r="E15">
-        <v>0.02152966027167211</v>
+        <v>0.01247052498891358</v>
       </c>
       <c r="F15">
-        <v>0.01182763893994048</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>-0.03713815700503269</v>
+      </c>
+      <c r="G15">
+        <v>0.01431987897955812</v>
+      </c>
+      <c r="H15">
+        <v>-0.06019727416272222</v>
+      </c>
+      <c r="I15">
+        <v>0.005292285585412128</v>
+      </c>
+      <c r="J15">
+        <v>0.06260192804103484</v>
+      </c>
+      <c r="K15">
+        <v>0.02443766740248602</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>0.008007778557102038</v>
+        <v>0.01662733058540645</v>
       </c>
       <c r="C16">
-        <v>-0.05573964953619641</v>
+        <v>-0.0597946105953328</v>
       </c>
       <c r="D16">
-        <v>0.02662143782364661</v>
+        <v>0.02792062021659086</v>
       </c>
       <c r="E16">
-        <v>-0.01504651849699436</v>
+        <v>0.01164242616161998</v>
       </c>
       <c r="F16">
-        <v>0.001097174025974982</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.0007969072278794916</v>
+      </c>
+      <c r="G16">
+        <v>-0.006675559964828117</v>
+      </c>
+      <c r="H16">
+        <v>-0.01406487185636211</v>
+      </c>
+      <c r="I16">
+        <v>0.00262274709091876</v>
+      </c>
+      <c r="J16">
+        <v>0.02121627399064247</v>
+      </c>
+      <c r="K16">
+        <v>0.02075528054240134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1292,25 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,10 +1327,25 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1077,150 +1362,270 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>0.01181268126838498</v>
+        <v>0.01485839161161514</v>
       </c>
       <c r="C20">
-        <v>-0.09256088808883911</v>
+        <v>-0.08299027497411382</v>
       </c>
       <c r="D20">
-        <v>0.03957167220096591</v>
+        <v>0.02814141640870374</v>
       </c>
       <c r="E20">
-        <v>-0.05115193532609807</v>
+        <v>-0.002263685195391386</v>
       </c>
       <c r="F20">
-        <v>-0.007091313318045213</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.01435615185819213</v>
+      </c>
+      <c r="G20">
+        <v>-0.01986966824635461</v>
+      </c>
+      <c r="H20">
+        <v>-0.05946950822775353</v>
+      </c>
+      <c r="I20">
+        <v>0.0002150984075390802</v>
+      </c>
+      <c r="J20">
+        <v>0.05342462109899371</v>
+      </c>
+      <c r="K20">
+        <v>0.01463649841495014</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>0.009287869137188418</v>
+        <v>0.01369727732651425</v>
       </c>
       <c r="C21">
-        <v>-0.08467435011831836</v>
+        <v>-0.06900811190471906</v>
       </c>
       <c r="D21">
-        <v>0.007087659514712906</v>
+        <v>0.01825425678888507</v>
       </c>
       <c r="E21">
-        <v>0.04594050506794184</v>
+        <v>-0.02262488409998493</v>
       </c>
       <c r="F21">
-        <v>-0.08014406773325909</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.06497375076432775</v>
+      </c>
+      <c r="G21">
+        <v>0.06906198169600215</v>
+      </c>
+      <c r="H21">
+        <v>-0.06429804437676878</v>
+      </c>
+      <c r="I21">
+        <v>0.02681277417395398</v>
+      </c>
+      <c r="J21">
+        <v>0.1245100651649835</v>
+      </c>
+      <c r="K21">
+        <v>-0.01554321161631276</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>0.004782650255188407</v>
+        <v>0.007804454693033788</v>
       </c>
       <c r="C22">
-        <v>-0.2361305248494151</v>
+        <v>-0.1682172521882256</v>
       </c>
       <c r="D22">
-        <v>-0.07345802685653023</v>
+        <v>0.02218787934819721</v>
       </c>
       <c r="E22">
-        <v>0.3166608529959331</v>
+        <v>0.007994476074268741</v>
       </c>
       <c r="F22">
-        <v>0.2818082219384324</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>-0.3540316158281034</v>
+      </c>
+      <c r="G22">
+        <v>0.3730221928037941</v>
+      </c>
+      <c r="H22">
+        <v>0.257219966165664</v>
+      </c>
+      <c r="I22">
+        <v>-0.117372449808899</v>
+      </c>
+      <c r="J22">
+        <v>-0.2113840988699122</v>
+      </c>
+      <c r="K22">
+        <v>0.016108788442536</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>0.005673903918757236</v>
+        <v>0.01295011543699775</v>
       </c>
       <c r="C23">
-        <v>-0.2397322233576897</v>
+        <v>-0.171528430908627</v>
       </c>
       <c r="D23">
-        <v>-0.07826837783976758</v>
+        <v>0.02203261685437426</v>
       </c>
       <c r="E23">
-        <v>0.311243467604233</v>
+        <v>0.01156495875824389</v>
       </c>
       <c r="F23">
-        <v>0.2780833966725105</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>-0.3435557799313494</v>
+      </c>
+      <c r="G23">
+        <v>0.3633186668295777</v>
+      </c>
+      <c r="H23">
+        <v>0.2435659835239597</v>
+      </c>
+      <c r="I23">
+        <v>-0.1089479437955696</v>
+      </c>
+      <c r="J23">
+        <v>-0.1945175832798087</v>
+      </c>
+      <c r="K23">
+        <v>0.02111816771535209</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>0.006279972862349031</v>
+        <v>0.01728617567678947</v>
       </c>
       <c r="C24">
-        <v>-0.060951589631216</v>
+        <v>-0.0629163471930735</v>
       </c>
       <c r="D24">
-        <v>0.04488952366951909</v>
+        <v>0.0415494365617579</v>
       </c>
       <c r="E24">
-        <v>-0.02113470270266696</v>
+        <v>0.01583155761467694</v>
       </c>
       <c r="F24">
-        <v>0.005930743004253475</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.002703829872759149</v>
+      </c>
+      <c r="G24">
+        <v>-0.007503081531767545</v>
+      </c>
+      <c r="H24">
+        <v>-0.02522632297402777</v>
+      </c>
+      <c r="I24">
+        <v>0.0001976208387109847</v>
+      </c>
+      <c r="J24">
+        <v>0.03827782066028922</v>
+      </c>
+      <c r="K24">
+        <v>0.0212781135085714</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>0.0071992409795392</v>
+        <v>0.02146381531647799</v>
       </c>
       <c r="C25">
-        <v>-0.0667884710887927</v>
+        <v>-0.06673236166372987</v>
       </c>
       <c r="D25">
-        <v>0.0241266816696758</v>
+        <v>0.03496322564545749</v>
       </c>
       <c r="E25">
-        <v>-0.02190507362953096</v>
+        <v>0.02002657764511616</v>
       </c>
       <c r="F25">
-        <v>-0.003221999029268534</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.0053522553459685</v>
+      </c>
+      <c r="G25">
+        <v>-0.005735176127946069</v>
+      </c>
+      <c r="H25">
+        <v>-0.02149004771644456</v>
+      </c>
+      <c r="I25">
+        <v>0.008350155261177205</v>
+      </c>
+      <c r="J25">
+        <v>0.03349080791395723</v>
+      </c>
+      <c r="K25">
+        <v>0.01094694824733439</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>0.0108705580200639</v>
+        <v>0.02182646055894999</v>
       </c>
       <c r="C26">
-        <v>-0.0436052176161432</v>
+        <v>-0.05310657348734579</v>
       </c>
       <c r="D26">
-        <v>0.07640621782066027</v>
+        <v>0.06230173190012634</v>
       </c>
       <c r="E26">
-        <v>-0.01652234971970654</v>
+        <v>0.0112990470149921</v>
       </c>
       <c r="F26">
-        <v>-0.03627600218825165</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.004848992413254113</v>
+      </c>
+      <c r="G26">
+        <v>-0.01333644692107095</v>
+      </c>
+      <c r="H26">
+        <v>-0.03196156571688104</v>
+      </c>
+      <c r="I26">
+        <v>0.0472565943936522</v>
+      </c>
+      <c r="J26">
+        <v>0.1084833712980306</v>
+      </c>
+      <c r="K26">
+        <v>0.06901888543623948</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1237,190 +1642,340 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>0.3433116232342089</v>
+        <v>0.305980159709347</v>
       </c>
       <c r="C28">
-        <v>0.1040536800056593</v>
+        <v>0.1203854423567863</v>
       </c>
       <c r="D28">
-        <v>-0.03391048213928349</v>
+        <v>-0.03390298217274533</v>
       </c>
       <c r="E28">
-        <v>-0.0202851486478402</v>
+        <v>-0.008399024563541989</v>
       </c>
       <c r="F28">
-        <v>0.0200710768064743</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.0170735821215026</v>
+      </c>
+      <c r="G28">
+        <v>0.05034731671876201</v>
+      </c>
+      <c r="H28">
+        <v>0.007016831312054255</v>
+      </c>
+      <c r="I28">
+        <v>0.1056222749867324</v>
+      </c>
+      <c r="J28">
+        <v>0.01681084772670464</v>
+      </c>
+      <c r="K28">
+        <v>-0.2050164918754261</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>0.008212066140806863</v>
+        <v>0.01776502171692515</v>
       </c>
       <c r="C29">
-        <v>-0.08355402963995337</v>
+        <v>-0.08153242407195598</v>
       </c>
       <c r="D29">
-        <v>0.05728882785042082</v>
+        <v>0.04897857220457914</v>
       </c>
       <c r="E29">
-        <v>0.002012573170469936</v>
+        <v>0.01880442129700379</v>
       </c>
       <c r="F29">
-        <v>-0.02564158771601816</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.03560270296317637</v>
+      </c>
+      <c r="G29">
+        <v>0.02519616792615062</v>
+      </c>
+      <c r="H29">
+        <v>-0.1756575051215814</v>
+      </c>
+      <c r="I29">
+        <v>-0.05641434379638964</v>
+      </c>
+      <c r="J29">
+        <v>0.2568562927601526</v>
+      </c>
+      <c r="K29">
+        <v>0.002624128175868236</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>0.02546471403894109</v>
+        <v>0.03522966781367848</v>
       </c>
       <c r="C30">
-        <v>-0.1650300144494651</v>
+        <v>-0.1410793870356307</v>
       </c>
       <c r="D30">
-        <v>0.06986363961431814</v>
+        <v>0.0551491665126504</v>
       </c>
       <c r="E30">
-        <v>0.04110342483040488</v>
+        <v>-0.002454580530091945</v>
       </c>
       <c r="F30">
-        <v>0.03424508778232652</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.04193105133878934</v>
+      </c>
+      <c r="G30">
+        <v>0.03577680301940442</v>
+      </c>
+      <c r="H30">
+        <v>-0.04758399145067298</v>
+      </c>
+      <c r="I30">
+        <v>-0.01130553611663269</v>
+      </c>
+      <c r="J30">
+        <v>0.02930898084301502</v>
+      </c>
+      <c r="K30">
+        <v>0.06070764302971986</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>-0.002066723533809793</v>
+        <v>0.01480298189204537</v>
       </c>
       <c r="C31">
-        <v>-0.05231192538244391</v>
+        <v>-0.07633260784386305</v>
       </c>
       <c r="D31">
-        <v>0.03474166597468971</v>
+        <v>0.04405241648595289</v>
       </c>
       <c r="E31">
-        <v>-0.0171292964082371</v>
+        <v>0.005870212796959839</v>
       </c>
       <c r="F31">
-        <v>-0.005375775214879609</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.01067736965011871</v>
+      </c>
+      <c r="G31">
+        <v>0.005380542648425049</v>
+      </c>
+      <c r="H31">
+        <v>-0.02245113014084691</v>
+      </c>
+      <c r="I31">
+        <v>0.03614969651503017</v>
+      </c>
+      <c r="J31">
+        <v>0.02666481027440687</v>
+      </c>
+      <c r="K31">
+        <v>0.01094469109872086</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>0.0140455352634185</v>
+        <v>0.02218187492090468</v>
       </c>
       <c r="C32">
-        <v>-0.06674808393398068</v>
+        <v>-0.05303365979032415</v>
       </c>
       <c r="D32">
-        <v>0.01728930988933136</v>
+        <v>0.03019716990863105</v>
       </c>
       <c r="E32">
-        <v>0.1497509974161507</v>
+        <v>0.02405491581592428</v>
       </c>
       <c r="F32">
-        <v>-0.002353106914525723</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.002355202750610449</v>
+      </c>
+      <c r="G32">
+        <v>0.1049195798547709</v>
+      </c>
+      <c r="H32">
+        <v>-0.04559739779808774</v>
+      </c>
+      <c r="I32">
+        <v>-0.01002505743066582</v>
+      </c>
+      <c r="J32">
+        <v>0.1726708174439505</v>
+      </c>
+      <c r="K32">
+        <v>-0.2251192572642532</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>0.009294972896555271</v>
+        <v>0.01698663959731303</v>
       </c>
       <c r="C33">
-        <v>-0.09646057501599567</v>
+        <v>-0.09978074180360248</v>
       </c>
       <c r="D33">
-        <v>0.05996239381050528</v>
+        <v>0.05307971787689453</v>
       </c>
       <c r="E33">
-        <v>-0.003769551022367956</v>
+        <v>0.004446842893458139</v>
       </c>
       <c r="F33">
-        <v>0.003068266954244153</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.02151550665419669</v>
+      </c>
+      <c r="G33">
+        <v>0.01289856874335368</v>
+      </c>
+      <c r="H33">
+        <v>-0.03353929504993946</v>
+      </c>
+      <c r="I33">
+        <v>-0.008569078569008529</v>
+      </c>
+      <c r="J33">
+        <v>0.05912396637677358</v>
+      </c>
+      <c r="K33">
+        <v>-0.01735653708798897</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>0.00517631057288112</v>
+        <v>0.01710014165273603</v>
       </c>
       <c r="C34">
-        <v>-0.05040126291677584</v>
+        <v>-0.04859446595744462</v>
       </c>
       <c r="D34">
-        <v>0.02590739355952177</v>
+        <v>0.02209200431383978</v>
       </c>
       <c r="E34">
-        <v>-0.007926951363276417</v>
+        <v>0.01778740059546368</v>
       </c>
       <c r="F34">
-        <v>-0.01881191979395314</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.005863762451215613</v>
+      </c>
+      <c r="G34">
+        <v>-0.006973136733061464</v>
+      </c>
+      <c r="H34">
+        <v>-0.03063841617460404</v>
+      </c>
+      <c r="I34">
+        <v>-0.01116059082622925</v>
+      </c>
+      <c r="J34">
+        <v>-0.004226125534494546</v>
+      </c>
+      <c r="K34">
+        <v>0.011151677367916</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>0.00252909968977379</v>
+        <v>0.01093158704253606</v>
       </c>
       <c r="C35">
-        <v>-0.03237822223652914</v>
+        <v>-0.04763321141020713</v>
       </c>
       <c r="D35">
-        <v>0.01474228503433322</v>
+        <v>0.02316640655285688</v>
       </c>
       <c r="E35">
-        <v>0.001215451604997632</v>
+        <v>-0.005814656366482275</v>
       </c>
       <c r="F35">
-        <v>-0.008072021052990382</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>0.003245286465723524</v>
+      </c>
+      <c r="G35">
+        <v>0.01209258747368509</v>
+      </c>
+      <c r="H35">
+        <v>-0.09919853865667615</v>
+      </c>
+      <c r="I35">
+        <v>-0.005660893205437797</v>
+      </c>
+      <c r="J35">
+        <v>0.1249298441767485</v>
+      </c>
+      <c r="K35">
+        <v>-0.01248946351453528</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>0.007758346747025252</v>
+        <v>0.01331776984982749</v>
       </c>
       <c r="C36">
-        <v>-0.04943521418767649</v>
+        <v>-0.04509895928762755</v>
       </c>
       <c r="D36">
-        <v>0.05402841278925236</v>
+        <v>0.0419758311242427</v>
       </c>
       <c r="E36">
-        <v>-0.008136896401258325</v>
+        <v>-0.007158783634747439</v>
       </c>
       <c r="F36">
-        <v>-0.006724079419762634</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.01052317384726027</v>
+      </c>
+      <c r="G36">
+        <v>0.01247445698909611</v>
+      </c>
+      <c r="H36">
+        <v>-0.0227123046088516</v>
+      </c>
+      <c r="I36">
+        <v>0.03183963233467572</v>
+      </c>
+      <c r="J36">
+        <v>0.08187867306928381</v>
+      </c>
+      <c r="K36">
+        <v>0.02168572864729233</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,90 +1992,165 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>0.02676110511917044</v>
+        <v>0.01016772697034797</v>
       </c>
       <c r="C38">
-        <v>-0.04573933472606938</v>
+        <v>-0.05641541817409938</v>
       </c>
       <c r="D38">
-        <v>0.03102281663276146</v>
+        <v>0.0387349452483571</v>
       </c>
       <c r="E38">
-        <v>-0.0210111514162845</v>
+        <v>-0.03573148278319815</v>
       </c>
       <c r="F38">
-        <v>0.002304154297299545</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.03498185415825455</v>
+      </c>
+      <c r="G38">
+        <v>0.0003723960108829873</v>
+      </c>
+      <c r="H38">
+        <v>-0.04754493668704789</v>
+      </c>
+      <c r="I38">
+        <v>-0.007165087943559505</v>
+      </c>
+      <c r="J38">
+        <v>0.07602254025350125</v>
+      </c>
+      <c r="K38">
+        <v>-0.0698481054786995</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>0.006201270753826996</v>
+        <v>0.0244074546866013</v>
       </c>
       <c r="C39">
-        <v>-0.1258128456211182</v>
+        <v>-0.1273132419877228</v>
       </c>
       <c r="D39">
-        <v>0.06517132356761096</v>
+        <v>0.0616793592036072</v>
       </c>
       <c r="E39">
-        <v>-0.01226512294150404</v>
+        <v>0.00158730280440945</v>
       </c>
       <c r="F39">
-        <v>-0.0164911520063135</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.01000836474714038</v>
+      </c>
+      <c r="G39">
+        <v>-0.001970048539734683</v>
+      </c>
+      <c r="H39">
+        <v>-0.0617921469997644</v>
+      </c>
+      <c r="I39">
+        <v>-0.02052355521434996</v>
+      </c>
+      <c r="J39">
+        <v>0.02038825796728014</v>
+      </c>
+      <c r="K39">
+        <v>0.09580754549611466</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>0.01481194066605763</v>
+        <v>0.02148595512526706</v>
       </c>
       <c r="C40">
-        <v>-0.07277918996209631</v>
+        <v>-0.07445820639522699</v>
       </c>
       <c r="D40">
-        <v>0.03412986874688197</v>
+        <v>0.03662279460736397</v>
       </c>
       <c r="E40">
-        <v>0.03721701477650569</v>
+        <v>0.009226626429792315</v>
       </c>
       <c r="F40">
-        <v>0.05970883556853041</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.005509318508728094</v>
+      </c>
+      <c r="G40">
+        <v>0.02330139133924701</v>
+      </c>
+      <c r="H40">
+        <v>-0.05396141795325162</v>
+      </c>
+      <c r="I40">
+        <v>-0.09544533494250318</v>
+      </c>
+      <c r="J40">
+        <v>0.0913449338153222</v>
+      </c>
+      <c r="K40">
+        <v>-0.0313522798186745</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>0.01021140440641995</v>
+        <v>0.02234974309106953</v>
       </c>
       <c r="C41">
-        <v>-0.02767257448822945</v>
+        <v>-0.04716465956102785</v>
       </c>
       <c r="D41">
-        <v>0.002078286493624616</v>
+        <v>0.0171462795116445</v>
       </c>
       <c r="E41">
-        <v>-0.006143684215785939</v>
+        <v>0.00471774426992078</v>
       </c>
       <c r="F41">
-        <v>-0.001769174471353962</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.005015425421284047</v>
+      </c>
+      <c r="G41">
+        <v>-0.01120474914648747</v>
+      </c>
+      <c r="H41">
+        <v>-0.006556412246782864</v>
+      </c>
+      <c r="I41">
+        <v>0.0117541463012088</v>
+      </c>
+      <c r="J41">
+        <v>0.02565907093128809</v>
+      </c>
+      <c r="K41">
+        <v>-0.02846526651987336</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1537,50 +2167,95 @@
       <c r="F42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>0.005995944298248351</v>
+        <v>0.01945956785400392</v>
       </c>
       <c r="C43">
-        <v>-0.02921277436157201</v>
+        <v>-0.04503907781833503</v>
       </c>
       <c r="D43">
-        <v>0.02528930724740706</v>
+        <v>0.02827722633037464</v>
       </c>
       <c r="E43">
-        <v>-0.003279123666990706</v>
+        <v>-0.0006569162407368548</v>
       </c>
       <c r="F43">
-        <v>0.006970443695783156</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.007962801782308085</v>
+      </c>
+      <c r="G43">
+        <v>-0.009421187647317779</v>
+      </c>
+      <c r="H43">
+        <v>-0.01565273671407101</v>
+      </c>
+      <c r="I43">
+        <v>0.006999296964854458</v>
+      </c>
+      <c r="J43">
+        <v>0.0371319370201442</v>
+      </c>
+      <c r="K43">
+        <v>-0.001549290066100518</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>0.0125681902831823</v>
+        <v>0.01681330503915379</v>
       </c>
       <c r="C44">
-        <v>-0.09836743559998723</v>
+        <v>-0.09576678836679166</v>
       </c>
       <c r="D44">
-        <v>0.04128803778889593</v>
+        <v>0.06109539026041194</v>
       </c>
       <c r="E44">
-        <v>0.02300118575239929</v>
+        <v>-0.01703488725743694</v>
       </c>
       <c r="F44">
-        <v>0.03986224348540768</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.05673042826932429</v>
+      </c>
+      <c r="G44">
+        <v>0.03690516816333977</v>
+      </c>
+      <c r="H44">
+        <v>-0.02023604898289919</v>
+      </c>
+      <c r="I44">
+        <v>-0.03954768464845024</v>
+      </c>
+      <c r="J44">
+        <v>0.06093659136079973</v>
+      </c>
+      <c r="K44">
+        <v>0.06668739906958376</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,130 +2272,235 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>-0.003874954584273406</v>
+        <v>0.005688521140606109</v>
       </c>
       <c r="C46">
-        <v>-0.06955547076156454</v>
+        <v>-0.06744745221640842</v>
       </c>
       <c r="D46">
-        <v>0.0631598628921929</v>
+        <v>0.02831158325971147</v>
       </c>
       <c r="E46">
-        <v>0.009227740329649093</v>
+        <v>-0.02151229663612542</v>
       </c>
       <c r="F46">
-        <v>-0.01360925634393446</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.0166344516297181</v>
+      </c>
+      <c r="G46">
+        <v>-0.0004372714647135199</v>
+      </c>
+      <c r="H46">
+        <v>-0.02558550125714314</v>
+      </c>
+      <c r="I46">
+        <v>-1.865446866708795e-07</v>
+      </c>
+      <c r="J46">
+        <v>0.1007978942839888</v>
+      </c>
+      <c r="K46">
+        <v>0.01138411614563456</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>0.00869707342330632</v>
+        <v>0.02103546587489936</v>
       </c>
       <c r="C47">
-        <v>-0.05881157635128782</v>
+        <v>-0.07096604790605218</v>
       </c>
       <c r="D47">
-        <v>0.04389474509562547</v>
+        <v>0.04903526106872801</v>
       </c>
       <c r="E47">
-        <v>-0.02922363779479693</v>
+        <v>0.0208945155307477</v>
       </c>
       <c r="F47">
-        <v>-0.04163671277854677</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.003181674184854284</v>
+      </c>
+      <c r="G47">
+        <v>-0.004940803452412484</v>
+      </c>
+      <c r="H47">
+        <v>-0.03150096141820808</v>
+      </c>
+      <c r="I47">
+        <v>0.024422895722671</v>
+      </c>
+      <c r="J47">
+        <v>0.06135825041955103</v>
+      </c>
+      <c r="K47">
+        <v>-0.01811592008415568</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>0.008991618912146001</v>
+        <v>0.01560271667067968</v>
       </c>
       <c r="C48">
-        <v>-0.05246421528611518</v>
+        <v>-0.04505296244130887</v>
       </c>
       <c r="D48">
-        <v>0.06405232778613888</v>
+        <v>0.05331733733917374</v>
       </c>
       <c r="E48">
-        <v>-0.02354159087318059</v>
+        <v>0.01408172916719289</v>
       </c>
       <c r="F48">
-        <v>-0.01021850062636053</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.02024912231349848</v>
+      </c>
+      <c r="G48">
+        <v>0.004304882919003019</v>
+      </c>
+      <c r="H48">
+        <v>-0.02988139000981801</v>
+      </c>
+      <c r="I48">
+        <v>0.0529820703967708</v>
+      </c>
+      <c r="J48">
+        <v>0.1079792607406889</v>
+      </c>
+      <c r="K48">
+        <v>0.0495993748190983</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.0230747350882724</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.05127715452809298</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.01337651622076221</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.03012457439832494</v>
       </c>
       <c r="F49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>0.03486694147583338</v>
+      </c>
+      <c r="G49">
+        <v>-0.06746964123263846</v>
+      </c>
+      <c r="H49">
+        <v>-0.0706970022096092</v>
+      </c>
+      <c r="I49">
+        <v>-0.06770076175643414</v>
+      </c>
+      <c r="J49">
+        <v>-0.09515268927958881</v>
+      </c>
+      <c r="K49">
+        <v>0.05410917763263703</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>-0.003040755001248462</v>
+        <v>0.01541288940861753</v>
       </c>
       <c r="C50">
-        <v>-0.05824566882472136</v>
+        <v>-0.07467607147897957</v>
       </c>
       <c r="D50">
-        <v>0.03573222485004423</v>
+        <v>0.03411298700100594</v>
       </c>
       <c r="E50">
-        <v>0.002137605081000248</v>
+        <v>0.01488385942530736</v>
       </c>
       <c r="F50">
-        <v>0.008312507010377264</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.02074962648489185</v>
+      </c>
+      <c r="G50">
+        <v>0.006175267708429265</v>
+      </c>
+      <c r="H50">
+        <v>-0.04640023458917063</v>
+      </c>
+      <c r="I50">
+        <v>0.0212397125482843</v>
+      </c>
+      <c r="J50">
+        <v>0.04476369036923766</v>
+      </c>
+      <c r="K50">
+        <v>-0.04739476680698045</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>0.003739041602284727</v>
+        <v>-0.005480388720175945</v>
       </c>
       <c r="C51">
-        <v>-0.07181320127074692</v>
+        <v>-0.03423983943052364</v>
       </c>
       <c r="D51">
-        <v>0.04383658836878679</v>
+        <v>0.02466221988017356</v>
       </c>
       <c r="E51">
-        <v>0.03202592111547929</v>
+        <v>-0.02292077293573792</v>
       </c>
       <c r="F51">
-        <v>0.01714523977436834</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.008286089958947418</v>
+      </c>
+      <c r="G51">
+        <v>0.02433003755526163</v>
+      </c>
+      <c r="H51">
+        <v>-0.02968411892995388</v>
+      </c>
+      <c r="I51">
+        <v>0.002855448448115938</v>
+      </c>
+      <c r="J51">
+        <v>0.1051297906666259</v>
+      </c>
+      <c r="K51">
+        <v>0.02645471262900873</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,90 +2517,165 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>0.03297956500088911</v>
+        <v>0.06111960383397155</v>
       </c>
       <c r="C53">
-        <v>-0.09714575313643309</v>
+        <v>-0.1276514752635121</v>
       </c>
       <c r="D53">
-        <v>0.05799770270815062</v>
+        <v>0.05983566562421964</v>
       </c>
       <c r="E53">
-        <v>-0.1111266087382869</v>
+        <v>0.02182216675306787</v>
       </c>
       <c r="F53">
-        <v>-0.02402910115618546</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.04685191105179828</v>
+      </c>
+      <c r="G53">
+        <v>-0.0406596265244277</v>
+      </c>
+      <c r="H53">
+        <v>0.03455783580464588</v>
+      </c>
+      <c r="I53">
+        <v>0.08995024500615696</v>
+      </c>
+      <c r="J53">
+        <v>-0.04766901211499679</v>
+      </c>
+      <c r="K53">
+        <v>-0.02629614571383913</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>0.0047708898324704</v>
+        <v>0.01702331349392542</v>
       </c>
       <c r="C54">
-        <v>-0.07400251062686419</v>
+        <v>-0.07157856529725151</v>
       </c>
       <c r="D54">
-        <v>0.01773587653516851</v>
+        <v>0.01321447935926153</v>
       </c>
       <c r="E54">
-        <v>-0.0250827124839551</v>
+        <v>0.0118704036426063</v>
       </c>
       <c r="F54">
-        <v>0.002317147222011559</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.001409550108150305</v>
+      </c>
+      <c r="G54">
+        <v>-0.003114966274099558</v>
+      </c>
+      <c r="H54">
+        <v>-0.02097441394035564</v>
+      </c>
+      <c r="I54">
+        <v>0.007911744310773964</v>
+      </c>
+      <c r="J54">
+        <v>0.05732919836637888</v>
+      </c>
+      <c r="K54">
+        <v>0.03002763617502179</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>0.01374632729041537</v>
+        <v>0.03044803935020831</v>
       </c>
       <c r="C55">
-        <v>-0.06779214010045093</v>
+        <v>-0.07965620652005725</v>
       </c>
       <c r="D55">
-        <v>0.06173987924212466</v>
+        <v>0.05420824159452468</v>
       </c>
       <c r="E55">
-        <v>-0.05716806730051453</v>
+        <v>0.02260500089799198</v>
       </c>
       <c r="F55">
-        <v>-0.02657083038199922</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.02777734503370799</v>
+      </c>
+      <c r="G55">
+        <v>-0.03107506879536452</v>
+      </c>
+      <c r="H55">
+        <v>0.01678583571356049</v>
+      </c>
+      <c r="I55">
+        <v>0.0378333885412858</v>
+      </c>
+      <c r="J55">
+        <v>-0.00655568986579069</v>
+      </c>
+      <c r="K55">
+        <v>0.00727604236496151</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>0.01412695910710544</v>
+        <v>0.05091083016991455</v>
       </c>
       <c r="C56">
-        <v>-0.1327885380393156</v>
+        <v>-0.1507115723145102</v>
       </c>
       <c r="D56">
-        <v>0.06962634486656205</v>
+        <v>0.08464519755699337</v>
       </c>
       <c r="E56">
-        <v>-0.07385049760333505</v>
+        <v>0.02317061071103799</v>
       </c>
       <c r="F56">
-        <v>-0.03423918270031988</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.09706004523777102</v>
+      </c>
+      <c r="G56">
+        <v>-0.05409459397493607</v>
+      </c>
+      <c r="H56">
+        <v>0.06475366334575944</v>
+      </c>
+      <c r="I56">
+        <v>0.1624491275825241</v>
+      </c>
+      <c r="J56">
+        <v>-0.08477843331401672</v>
+      </c>
+      <c r="K56">
+        <v>-0.001944066635233249</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1837,250 +2692,445 @@
       <c r="F57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>0.02519254415940436</v>
+        <v>0.01515202677534097</v>
       </c>
       <c r="C58">
-        <v>-0.2702474074005605</v>
+        <v>-0.1653584254443045</v>
       </c>
       <c r="D58">
-        <v>-0.01172261083693531</v>
+        <v>0.04617267026074352</v>
       </c>
       <c r="E58">
-        <v>0.1889419549630586</v>
+        <v>-0.08331304373848548</v>
       </c>
       <c r="F58">
-        <v>0.1996029314600342</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.2163708921435568</v>
+      </c>
+      <c r="G58">
+        <v>0.2672776641231279</v>
+      </c>
+      <c r="H58">
+        <v>0.02822968141757305</v>
+      </c>
+      <c r="I58">
+        <v>0.05092431501434154</v>
+      </c>
+      <c r="J58">
+        <v>0.1414981038501186</v>
+      </c>
+      <c r="K58">
+        <v>-0.04185040530515112</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>0.2927052026099619</v>
+        <v>0.2878579837237025</v>
       </c>
       <c r="C59">
-        <v>0.001894834021938298</v>
+        <v>0.05452693697661334</v>
       </c>
       <c r="D59">
-        <v>-0.01009231966810016</v>
+        <v>-0.009621574594882576</v>
       </c>
       <c r="E59">
-        <v>0.06544776779816255</v>
+        <v>-0.005585781490546267</v>
       </c>
       <c r="F59">
-        <v>-0.03598659990025445</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.01306543029160889</v>
+      </c>
+      <c r="G59">
+        <v>0.06069826587267726</v>
+      </c>
+      <c r="H59">
+        <v>0.02241771115755958</v>
+      </c>
+      <c r="I59">
+        <v>-0.004945614772609395</v>
+      </c>
+      <c r="J59">
+        <v>-0.00608503658375647</v>
+      </c>
+      <c r="K59">
+        <v>-0.03496798865926645</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>0.1248483196052215</v>
+        <v>0.1548550293077399</v>
       </c>
       <c r="C60">
-        <v>-0.146684593712172</v>
+        <v>-0.1619356802598267</v>
       </c>
       <c r="D60">
-        <v>0.06807307837156844</v>
+        <v>0.03667388592221189</v>
       </c>
       <c r="E60">
-        <v>-0.1368753235219239</v>
+        <v>0.09368312250018483</v>
       </c>
       <c r="F60">
-        <v>-0.2606844286729833</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.1203291532734244</v>
+      </c>
+      <c r="G60">
+        <v>-0.1116686708386467</v>
+      </c>
+      <c r="H60">
+        <v>0.1220053952373488</v>
+      </c>
+      <c r="I60">
+        <v>-0.2938693048983563</v>
+      </c>
+      <c r="J60">
+        <v>-0.09134600067561441</v>
+      </c>
+      <c r="K60">
+        <v>0.04481542395160142</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>0.006583505463911852</v>
+        <v>0.02505919247640573</v>
       </c>
       <c r="C61">
-        <v>-0.08551956160214641</v>
+        <v>-0.09727444690692758</v>
       </c>
       <c r="D61">
-        <v>0.07116187632950001</v>
+        <v>0.05529655071452146</v>
       </c>
       <c r="E61">
-        <v>-0.03649508372795565</v>
+        <v>0.01058921554857946</v>
       </c>
       <c r="F61">
-        <v>-0.0321043611374091</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.01467348477409659</v>
+      </c>
+      <c r="G61">
+        <v>-0.02236681735166508</v>
+      </c>
+      <c r="H61">
+        <v>-0.0570092656888862</v>
+      </c>
+      <c r="I61">
+        <v>-0.001444717665341797</v>
+      </c>
+      <c r="J61">
+        <v>0.02637490339454697</v>
+      </c>
+      <c r="K61">
+        <v>0.03491634207661572</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.00258064780782778</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.01461010033007803</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>0.004170932532071276</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.03004689762042857</v>
       </c>
       <c r="F62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>-0.0228218009768663</v>
+      </c>
+      <c r="G62">
+        <v>0.005164386405029292</v>
+      </c>
+      <c r="H62">
+        <v>-0.01971245235124736</v>
+      </c>
+      <c r="I62">
+        <v>-0.01441090093021779</v>
+      </c>
+      <c r="J62">
+        <v>0.01531501264257827</v>
+      </c>
+      <c r="K62">
+        <v>-0.00585269942615106</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>9.095985608819954e-05</v>
+        <v>0.02594192192500889</v>
       </c>
       <c r="C63">
-        <v>-0.0520748119264204</v>
+        <v>-0.06084355110389823</v>
       </c>
       <c r="D63">
-        <v>0.04363345102763559</v>
+        <v>0.06040431434354691</v>
       </c>
       <c r="E63">
-        <v>-0.006973147405302884</v>
+        <v>0.009778681723780495</v>
       </c>
       <c r="F63">
-        <v>0.006761040439383419</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.007457598543609479</v>
+      </c>
+      <c r="G63">
+        <v>-0.005241304677939166</v>
+      </c>
+      <c r="H63">
+        <v>-0.04399697316663811</v>
+      </c>
+      <c r="I63">
+        <v>0.02476342434661528</v>
+      </c>
+      <c r="J63">
+        <v>0.04216002642458708</v>
+      </c>
+      <c r="K63">
+        <v>0.02071306251763053</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>-0.002916018853725527</v>
+        <v>0.01821758922764937</v>
       </c>
       <c r="C64">
-        <v>-0.09114009552317361</v>
+        <v>-0.09229003327919374</v>
       </c>
       <c r="D64">
-        <v>0.07665561686559505</v>
+        <v>0.03737012421986201</v>
       </c>
       <c r="E64">
-        <v>-0.02438856845951794</v>
+        <v>0.03369604331406158</v>
       </c>
       <c r="F64">
-        <v>0.01964425911927309</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.04415947408405077</v>
+      </c>
+      <c r="G64">
+        <v>0.006108988344017879</v>
+      </c>
+      <c r="H64">
+        <v>-0.02764220074027887</v>
+      </c>
+      <c r="I64">
+        <v>-0.02677446914931236</v>
+      </c>
+      <c r="J64">
+        <v>0.04005204546087199</v>
+      </c>
+      <c r="K64">
+        <v>0.08600106293477922</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>0.01655533957115207</v>
+        <v>0.03359948075585598</v>
       </c>
       <c r="C65">
-        <v>-0.08446159802880644</v>
+        <v>-0.09325440992596751</v>
       </c>
       <c r="D65">
-        <v>0.02909497015087502</v>
+        <v>0.02377344927096209</v>
       </c>
       <c r="E65">
-        <v>0.0207818158665463</v>
+        <v>-0.009761026414011963</v>
       </c>
       <c r="F65">
-        <v>-0.0107489452310086</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.005566402565088037</v>
+      </c>
+      <c r="G65">
+        <v>-0.01099990307732613</v>
+      </c>
+      <c r="H65">
+        <v>-0.009415200830477068</v>
+      </c>
+      <c r="I65">
+        <v>-0.08131436757519431</v>
+      </c>
+      <c r="J65">
+        <v>0.02073773013921496</v>
+      </c>
+      <c r="K65">
+        <v>0.08643748664266185</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>-0.0006653303648703234</v>
+        <v>0.02289450003248458</v>
       </c>
       <c r="C66">
-        <v>-0.1753283923905269</v>
+        <v>-0.1701479211354536</v>
       </c>
       <c r="D66">
-        <v>0.05292676101641398</v>
+        <v>0.05536231543922093</v>
       </c>
       <c r="E66">
-        <v>0.01235778508320119</v>
+        <v>-0.003804538671633084</v>
       </c>
       <c r="F66">
-        <v>-0.01727763133523397</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.01054268555457768</v>
+      </c>
+      <c r="G66">
+        <v>0.009891780024037863</v>
+      </c>
+      <c r="H66">
+        <v>-0.06818647264282277</v>
+      </c>
+      <c r="I66">
+        <v>-0.004406010779265257</v>
+      </c>
+      <c r="J66">
+        <v>0.02731606457487267</v>
+      </c>
+      <c r="K66">
+        <v>0.07129540299686167</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>0.02858768215209297</v>
+        <v>0.0196452157137842</v>
       </c>
       <c r="C67">
-        <v>-0.02359383108242026</v>
+        <v>-0.04945567202340077</v>
       </c>
       <c r="D67">
-        <v>0.04517206683341719</v>
+        <v>0.03923191746153547</v>
       </c>
       <c r="E67">
-        <v>-0.05578670324363161</v>
+        <v>-0.03156665524530693</v>
       </c>
       <c r="F67">
-        <v>-0.02174664853926083</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.009046254978707428</v>
+      </c>
+      <c r="G67">
+        <v>-0.0265594538985483</v>
+      </c>
+      <c r="H67">
+        <v>-0.02183637579888762</v>
+      </c>
+      <c r="I67">
+        <v>-0.0376494363468885</v>
+      </c>
+      <c r="J67">
+        <v>0.07521355945572966</v>
+      </c>
+      <c r="K67">
+        <v>-0.05424451214439139</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>0.2979982400899578</v>
+        <v>0.2926302677260026</v>
       </c>
       <c r="C68">
-        <v>0.02701527357811087</v>
+        <v>0.08041249762505751</v>
       </c>
       <c r="D68">
-        <v>0.003463550559816217</v>
+        <v>-0.02754037598950715</v>
       </c>
       <c r="E68">
-        <v>0.02727437320678011</v>
+        <v>0.01855783196464523</v>
       </c>
       <c r="F68">
-        <v>0.005110702179921998</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.01825113889498314</v>
+      </c>
+      <c r="G68">
+        <v>0.03474673023050183</v>
+      </c>
+      <c r="H68">
+        <v>-0.002254555748426225</v>
+      </c>
+      <c r="I68">
+        <v>0.03218913458316521</v>
+      </c>
+      <c r="J68">
+        <v>0.03063882309424159</v>
+      </c>
+      <c r="K68">
+        <v>-0.0434297603911124</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>0.01024425663214609</v>
+        <v>0.0102540505958272</v>
       </c>
       <c r="C69">
-        <v>-0.05551234099143178</v>
+        <v>-0.04528669648394106</v>
       </c>
       <c r="D69">
-        <v>0.04836762778784713</v>
+        <v>0.02730243279406225</v>
       </c>
       <c r="E69">
-        <v>-0.03581647763682931</v>
+        <v>-0.001520667687983991</v>
       </c>
       <c r="F69">
-        <v>-0.006210139132368308</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.009370969556737666</v>
+      </c>
+      <c r="G69">
+        <v>-0.003587586636937438</v>
+      </c>
+      <c r="H69">
+        <v>-0.005169443492398755</v>
+      </c>
+      <c r="I69">
+        <v>-0.01026434050192284</v>
+      </c>
+      <c r="J69">
+        <v>0.03748210498282924</v>
+      </c>
+      <c r="K69">
+        <v>-0.027437150860583</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,510 +3147,900 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>0.2874034663235338</v>
+        <v>0.2749447642536601</v>
       </c>
       <c r="C71">
-        <v>0.03806457540461897</v>
+        <v>0.07994954609297421</v>
       </c>
       <c r="D71">
-        <v>-0.01015807174065535</v>
+        <v>-0.02222823950853157</v>
       </c>
       <c r="E71">
-        <v>0.02468027761028981</v>
+        <v>-0.004566646642122604</v>
       </c>
       <c r="F71">
-        <v>0.04069507190327287</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.0485297208289405</v>
+      </c>
+      <c r="G71">
+        <v>0.04776091828555302</v>
+      </c>
+      <c r="H71">
+        <v>-0.00294148699264612</v>
+      </c>
+      <c r="I71">
+        <v>0.03391055262129292</v>
+      </c>
+      <c r="J71">
+        <v>0.04884909567447142</v>
+      </c>
+      <c r="K71">
+        <v>-0.1150099881043713</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>0.01740420770908167</v>
+        <v>0.0570744126719579</v>
       </c>
       <c r="C72">
-        <v>-0.1416474395518585</v>
+        <v>-0.135306813564369</v>
       </c>
       <c r="D72">
-        <v>0.07611690045221338</v>
+        <v>0.05435524449504187</v>
       </c>
       <c r="E72">
-        <v>-0.01242267135711992</v>
+        <v>0.04794979008040663</v>
       </c>
       <c r="F72">
-        <v>0.03607640189982701</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.02139085914663844</v>
+      </c>
+      <c r="G72">
+        <v>-0.02441738325415411</v>
+      </c>
+      <c r="H72">
+        <v>-0.02397289294636542</v>
+      </c>
+      <c r="I72">
+        <v>0.02857668026293535</v>
+      </c>
+      <c r="J72">
+        <v>0.03619796206278195</v>
+      </c>
+      <c r="K72">
+        <v>0.1136031055778108</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>0.09818883417458651</v>
+        <v>0.1578004670403238</v>
       </c>
       <c r="C73">
-        <v>-0.1140427143519011</v>
+        <v>-0.1951417270094198</v>
       </c>
       <c r="D73">
-        <v>0.1094528209570004</v>
+        <v>0.07948110408642534</v>
       </c>
       <c r="E73">
-        <v>-0.2102170208622035</v>
+        <v>0.05152359607393985</v>
       </c>
       <c r="F73">
-        <v>-0.2971493018097553</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.1461403577507523</v>
+      </c>
+      <c r="G73">
+        <v>-0.2019625429610776</v>
+      </c>
+      <c r="H73">
+        <v>0.1242741385423788</v>
+      </c>
+      <c r="I73">
+        <v>-0.4628469732194855</v>
+      </c>
+      <c r="J73">
+        <v>-0.09996471625637894</v>
+      </c>
+      <c r="K73">
+        <v>-0.1053809635099269</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>0.01702229671462932</v>
+        <v>0.03876326901630906</v>
       </c>
       <c r="C74">
-        <v>-0.08123450034385646</v>
+        <v>-0.09691075783778556</v>
       </c>
       <c r="D74">
-        <v>0.07355214399577577</v>
+        <v>0.04471761168893915</v>
       </c>
       <c r="E74">
-        <v>-0.0617655307378939</v>
+        <v>0.0208972098606735</v>
       </c>
       <c r="F74">
-        <v>-0.02962901420510001</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.006784876177241059</v>
+      </c>
+      <c r="G74">
+        <v>-0.03161244210878467</v>
+      </c>
+      <c r="H74">
+        <v>0.03118110238980761</v>
+      </c>
+      <c r="I74">
+        <v>0.05732930388539618</v>
+      </c>
+      <c r="J74">
+        <v>0.01125832392714411</v>
+      </c>
+      <c r="K74">
+        <v>0.01625081262126068</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>0.03378439770379659</v>
+        <v>0.06418500163550654</v>
       </c>
       <c r="C75">
-        <v>-0.1348658532133459</v>
+        <v>-0.1591638271823513</v>
       </c>
       <c r="D75">
-        <v>0.05900686564433798</v>
+        <v>0.09024371025913792</v>
       </c>
       <c r="E75">
-        <v>-0.1352578293687659</v>
+        <v>0.0347782131227817</v>
       </c>
       <c r="F75">
-        <v>-0.01210252538443326</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.02838693375934544</v>
+      </c>
+      <c r="G75">
+        <v>-0.1019131376569403</v>
+      </c>
+      <c r="H75">
+        <v>0.009180955242227633</v>
+      </c>
+      <c r="I75">
+        <v>0.2183681042430668</v>
+      </c>
+      <c r="J75">
+        <v>-0.08583796377801213</v>
+      </c>
+      <c r="K75">
+        <v>-0.1523475818536243</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>0.00874474990086601</v>
+        <v>0.04663299498948392</v>
       </c>
       <c r="C76">
-        <v>-0.1032737323621851</v>
+        <v>-0.1249470409095657</v>
       </c>
       <c r="D76">
-        <v>0.0646877689764223</v>
+        <v>0.07755431351346247</v>
       </c>
       <c r="E76">
-        <v>-0.09198001300895821</v>
+        <v>0.01311282868853655</v>
       </c>
       <c r="F76">
-        <v>-0.04203286776229798</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.05612098489983212</v>
+      </c>
+      <c r="G76">
+        <v>-0.06414619987673424</v>
+      </c>
+      <c r="H76">
+        <v>0.001296610074423073</v>
+      </c>
+      <c r="I76">
+        <v>0.09006614547691864</v>
+      </c>
+      <c r="J76">
+        <v>-0.07210614497477162</v>
+      </c>
+      <c r="K76">
+        <v>0.01531828231778271</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>0.08288598431749795</v>
+        <v>0.05505667120290634</v>
       </c>
       <c r="C77">
-        <v>-0.3669888517415819</v>
+        <v>-0.410787331627172</v>
       </c>
       <c r="D77">
-        <v>-0.8552614957971777</v>
+        <v>-0.8945326677065826</v>
       </c>
       <c r="E77">
-        <v>-0.2446804766302195</v>
+        <v>0.02470548666940603</v>
       </c>
       <c r="F77">
-        <v>-0.1043000604796835</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.0001708079529642643</v>
+      </c>
+      <c r="G77">
+        <v>-0.06404800824335806</v>
+      </c>
+      <c r="H77">
+        <v>-0.08137797228641278</v>
+      </c>
+      <c r="I77">
+        <v>0.06168572061730909</v>
+      </c>
+      <c r="J77">
+        <v>0.001791942666184863</v>
+      </c>
+      <c r="K77">
+        <v>-0.02491004039403147</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>0.02679263779792279</v>
+        <v>0.03784447963723323</v>
       </c>
       <c r="C78">
-        <v>-0.1230006704235162</v>
+        <v>-0.1120152846479423</v>
       </c>
       <c r="D78">
-        <v>0.1615095524756556</v>
+        <v>0.09263880435126801</v>
       </c>
       <c r="E78">
-        <v>0.08453091358848652</v>
+        <v>-0.03351786738479612</v>
       </c>
       <c r="F78">
-        <v>-0.07531924131265548</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.03845638138138546</v>
+      </c>
+      <c r="G78">
+        <v>0.02545796347420461</v>
+      </c>
+      <c r="H78">
+        <v>0.01262172980243072</v>
+      </c>
+      <c r="I78">
+        <v>0.09311316586676416</v>
+      </c>
+      <c r="J78">
+        <v>0.04670219006498021</v>
+      </c>
+      <c r="K78">
+        <v>0.09823727552843876</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>0.0221695830910966</v>
+        <v>0.05768725187841002</v>
       </c>
       <c r="C79">
-        <v>-0.1493918965532305</v>
+        <v>-0.1378626081394768</v>
       </c>
       <c r="D79">
-        <v>0.1061309412381954</v>
+        <v>0.06936535479636899</v>
       </c>
       <c r="E79">
-        <v>-0.07729211265642207</v>
+        <v>0.01791262426458796</v>
       </c>
       <c r="F79">
-        <v>-0.04340683233111382</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>0.05193929443273869</v>
+      </c>
+      <c r="G79">
+        <v>-0.03739244068358085</v>
+      </c>
+      <c r="H79">
+        <v>0.0552283513861033</v>
+      </c>
+      <c r="I79">
+        <v>0.2624501044550118</v>
+      </c>
+      <c r="J79">
+        <v>-0.03132033227156297</v>
+      </c>
+      <c r="K79">
+        <v>-0.05747906804661867</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>0.007207813843329985</v>
+        <v>0.02029594615553281</v>
       </c>
       <c r="C80">
-        <v>-0.06116491294459002</v>
+        <v>-0.04579439972405471</v>
       </c>
       <c r="D80">
-        <v>0.03312176761732356</v>
+        <v>0.03444910049499792</v>
       </c>
       <c r="E80">
-        <v>0.03778476275853224</v>
+        <v>-0.01271660786453586</v>
       </c>
       <c r="F80">
-        <v>-0.009304796608392171</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.02783371170801046</v>
+      </c>
+      <c r="G80">
+        <v>0.06013439664631335</v>
+      </c>
+      <c r="H80">
+        <v>0.003764526176190281</v>
+      </c>
+      <c r="I80">
+        <v>-0.0828447961538965</v>
+      </c>
+      <c r="J80">
+        <v>-0.006530867212538177</v>
+      </c>
+      <c r="K80">
+        <v>-0.02469514318698254</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>0.001501242433911245</v>
+        <v>0.0172625620541088</v>
       </c>
       <c r="C81">
-        <v>-0.08101592270921931</v>
+        <v>-0.09726187723161295</v>
       </c>
       <c r="D81">
-        <v>0.05674170775370006</v>
+        <v>0.05799868192098497</v>
       </c>
       <c r="E81">
-        <v>-0.09053076311639305</v>
+        <v>0.01427462812862757</v>
       </c>
       <c r="F81">
-        <v>-0.02541052673646626</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.03448382808298531</v>
+      </c>
+      <c r="G81">
+        <v>-0.02326665706205128</v>
+      </c>
+      <c r="H81">
+        <v>0.01351462293040698</v>
+      </c>
+      <c r="I81">
+        <v>0.1266470702265348</v>
+      </c>
+      <c r="J81">
+        <v>0.01751300089196545</v>
+      </c>
+      <c r="K81">
+        <v>-0.05815822771206323</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>0.01652902923086995</v>
+        <v>0.04736693940992351</v>
       </c>
       <c r="C82">
-        <v>-0.07238187609672789</v>
+        <v>-0.1051153897761746</v>
       </c>
       <c r="D82">
-        <v>0.06770858062056276</v>
+        <v>0.06765821598914927</v>
       </c>
       <c r="E82">
-        <v>-0.08990708354618474</v>
+        <v>0.007216060195235696</v>
       </c>
       <c r="F82">
-        <v>-0.04557928474318965</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>0.06401282608437665</v>
+      </c>
+      <c r="G82">
+        <v>-0.04820630964068626</v>
+      </c>
+      <c r="H82">
+        <v>-0.01210588204458793</v>
+      </c>
+      <c r="I82">
+        <v>0.08783210951105894</v>
+      </c>
+      <c r="J82">
+        <v>-0.04911760985807773</v>
+      </c>
+      <c r="K82">
+        <v>-0.007889880880500603</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>0.01577681664069123</v>
+        <v>0.0002307289220551428</v>
       </c>
       <c r="C83">
-        <v>-0.00875629685248187</v>
+        <v>0.02125315345315085</v>
       </c>
       <c r="D83">
-        <v>-0.10511789782726</v>
+        <v>-0.05604546488707118</v>
       </c>
       <c r="E83">
-        <v>0.6098834011472684</v>
+        <v>0.05611684357188496</v>
       </c>
       <c r="F83">
-        <v>-0.6783427736916496</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.7237451819665457</v>
+      </c>
+      <c r="G83">
+        <v>0.6292740551972824</v>
+      </c>
+      <c r="H83">
+        <v>-0.03031888324260438</v>
+      </c>
+      <c r="I83">
+        <v>-0.008147145036278019</v>
+      </c>
+      <c r="J83">
+        <v>-0.1199517312942926</v>
+      </c>
+      <c r="K83">
+        <v>0.06406488829888342</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>-0.007513501688377209</v>
+        <v>0.01453480942977477</v>
       </c>
       <c r="C84">
-        <v>-0.09599473248157996</v>
+        <v>-0.06175006927670777</v>
       </c>
       <c r="D84">
-        <v>0.01748754205918613</v>
+        <v>0.08579132897474227</v>
       </c>
       <c r="E84">
-        <v>0.05547724736807032</v>
+        <v>-0.2443116986527625</v>
       </c>
       <c r="F84">
-        <v>0.1640117357430649</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>-0.1411098884596315</v>
+      </c>
+      <c r="G84">
+        <v>0.09897211786768115</v>
+      </c>
+      <c r="H84">
+        <v>-0.7415359330708367</v>
+      </c>
+      <c r="I84">
+        <v>-0.0870433244844146</v>
+      </c>
+      <c r="J84">
+        <v>-0.4969857050652258</v>
+      </c>
+      <c r="K84">
+        <v>-0.13402238688486</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>8.68139185439181e-05</v>
+        <v>0.03167613336877805</v>
       </c>
       <c r="C85">
-        <v>-0.09975176293719289</v>
+        <v>-0.112668376208007</v>
       </c>
       <c r="D85">
-        <v>0.06116435010997442</v>
+        <v>0.08212175415071576</v>
       </c>
       <c r="E85">
-        <v>-0.08268766069957136</v>
+        <v>0.01467009787176589</v>
       </c>
       <c r="F85">
-        <v>-0.03752409308190863</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.08205765779834681</v>
+      </c>
+      <c r="G85">
+        <v>-0.09496833434559855</v>
+      </c>
+      <c r="H85">
+        <v>0.03595863074979482</v>
+      </c>
+      <c r="I85">
+        <v>0.2280739322525187</v>
+      </c>
+      <c r="J85">
+        <v>-0.1095613561574194</v>
+      </c>
+      <c r="K85">
+        <v>-0.08534544051765003</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>0.01646628259641347</v>
+        <v>0.01496283032605529</v>
       </c>
       <c r="C86">
-        <v>-0.09323189057155776</v>
+        <v>-0.08061063174665507</v>
       </c>
       <c r="D86">
-        <v>0.00202971280318609</v>
+        <v>0.03807961379115268</v>
       </c>
       <c r="E86">
-        <v>0.004211113397543986</v>
+        <v>-0.04853761881743033</v>
       </c>
       <c r="F86">
-        <v>0.03646945908644667</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.03833422243468947</v>
+      </c>
+      <c r="G86">
+        <v>0.07788401632437211</v>
+      </c>
+      <c r="H86">
+        <v>0.1013459695561516</v>
+      </c>
+      <c r="I86">
+        <v>0.04742848396031744</v>
+      </c>
+      <c r="J86">
+        <v>0.04341185959939379</v>
+      </c>
+      <c r="K86">
+        <v>-0.1128577788340894</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>0.01055369254714412</v>
+        <v>0.02625455279081604</v>
       </c>
       <c r="C87">
-        <v>-0.1624488458948757</v>
+        <v>-0.1157229921296816</v>
       </c>
       <c r="D87">
-        <v>0.03248477241814622</v>
+        <v>0.01997545049147077</v>
       </c>
       <c r="E87">
-        <v>0.08098204006776602</v>
+        <v>0.03328128911281419</v>
       </c>
       <c r="F87">
-        <v>0.09293239565338267</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.03016525805325886</v>
+      </c>
+      <c r="G87">
+        <v>0.03813091581198568</v>
+      </c>
+      <c r="H87">
+        <v>-0.02748005693414839</v>
+      </c>
+      <c r="I87">
+        <v>0.01906665050477812</v>
+      </c>
+      <c r="J87">
+        <v>0.0138907129100226</v>
+      </c>
+      <c r="K87">
+        <v>0.08401008559426516</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>0.007499803355344354</v>
+        <v>0.03912268391291867</v>
       </c>
       <c r="C88">
-        <v>-0.03390109381017423</v>
+        <v>-0.0595329351482228</v>
       </c>
       <c r="D88">
-        <v>0.03896331114804865</v>
+        <v>0.03759218765488587</v>
       </c>
       <c r="E88">
-        <v>-0.05114098784330329</v>
+        <v>0.0184905550533274</v>
       </c>
       <c r="F88">
-        <v>-0.01878433538546484</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.005330140341604008</v>
+      </c>
+      <c r="G88">
+        <v>-0.02142330684124285</v>
+      </c>
+      <c r="H88">
+        <v>0.0099869504967703</v>
+      </c>
+      <c r="I88">
+        <v>-0.006636656371848157</v>
+      </c>
+      <c r="J88">
+        <v>0.02041594702823711</v>
+      </c>
+      <c r="K88">
+        <v>0.00635996131612135</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>0.4163697851754374</v>
+        <v>0.3894649254144494</v>
       </c>
       <c r="C89">
-        <v>0.07456196689757157</v>
+        <v>0.1260248954409467</v>
       </c>
       <c r="D89">
-        <v>0.08404798721719209</v>
+        <v>-0.03656860779859111</v>
       </c>
       <c r="E89">
-        <v>0.05488011155676877</v>
+        <v>0.01924798737753783</v>
       </c>
       <c r="F89">
-        <v>0.07046228868695048</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.06635399992917441</v>
+      </c>
+      <c r="G89">
+        <v>0.00749679929920648</v>
+      </c>
+      <c r="H89">
+        <v>-0.07475246252588534</v>
+      </c>
+      <c r="I89">
+        <v>0.003875817858476051</v>
+      </c>
+      <c r="J89">
+        <v>-0.01915313896215291</v>
+      </c>
+      <c r="K89">
+        <v>0.7444254051819238</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>0.3055139499525473</v>
+        <v>0.316242117330546</v>
       </c>
       <c r="C90">
-        <v>0.02028826222227573</v>
+        <v>0.08072079233652887</v>
       </c>
       <c r="D90">
-        <v>-0.01140530191376129</v>
+        <v>-0.02320590218719689</v>
       </c>
       <c r="E90">
-        <v>0.04555861260320634</v>
+        <v>-0.009914948894321008</v>
       </c>
       <c r="F90">
-        <v>-0.01423167231298401</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.01532005975343474</v>
+      </c>
+      <c r="G90">
+        <v>0.029219984558623</v>
+      </c>
+      <c r="H90">
+        <v>-0.00689834309156697</v>
+      </c>
+      <c r="I90">
+        <v>0.002228998344071998</v>
+      </c>
+      <c r="J90">
+        <v>0.0001864918154589669</v>
+      </c>
+      <c r="K90">
+        <v>-0.1081682781759424</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>0.02739672271469509</v>
+        <v>0.05697352644426591</v>
       </c>
       <c r="C91">
-        <v>-0.07647729816491228</v>
+        <v>-0.07754568544263246</v>
       </c>
       <c r="D91">
-        <v>0.06264960056237981</v>
+        <v>0.05585260602289077</v>
       </c>
       <c r="E91">
-        <v>-0.04226202298976361</v>
+        <v>0.02054538085388767</v>
       </c>
       <c r="F91">
-        <v>-0.05693161938354701</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.06261671412335051</v>
+      </c>
+      <c r="G91">
+        <v>-0.00965631821318879</v>
+      </c>
+      <c r="H91">
+        <v>0.0385337071246858</v>
+      </c>
+      <c r="I91">
+        <v>0.08722821392751688</v>
+      </c>
+      <c r="J91">
+        <v>-0.05235092596977806</v>
+      </c>
+      <c r="K91">
+        <v>-0.01942872167184338</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>0.3742887023819911</v>
+        <v>0.3501551235225717</v>
       </c>
       <c r="C92">
-        <v>0.0556078981723241</v>
+        <v>0.1214559768989849</v>
       </c>
       <c r="D92">
-        <v>-0.02109029028240284</v>
+        <v>-0.05283707414988782</v>
       </c>
       <c r="E92">
-        <v>-0.02177063840492047</v>
+        <v>0.004970855677539736</v>
       </c>
       <c r="F92">
-        <v>0.1186041649436513</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.06009291758572075</v>
+      </c>
+      <c r="G92">
+        <v>0.01089090358215756</v>
+      </c>
+      <c r="H92">
+        <v>-0.01598764592933147</v>
+      </c>
+      <c r="I92">
+        <v>0.03034685188142004</v>
+      </c>
+      <c r="J92">
+        <v>0.06428004918624294</v>
+      </c>
+      <c r="K92">
+        <v>-0.1358329970365274</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>0.3125177475596539</v>
+        <v>0.3084009454261822</v>
       </c>
       <c r="C93">
-        <v>0.06536180525860563</v>
+        <v>0.1213321175519698</v>
       </c>
       <c r="D93">
-        <v>0.003880466254903084</v>
+        <v>-0.009826357981503856</v>
       </c>
       <c r="E93">
-        <v>0.06318696797148352</v>
+        <v>-0.02612688235692059</v>
       </c>
       <c r="F93">
-        <v>0.04729023068478979</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.03245666049133865</v>
+      </c>
+      <c r="G93">
+        <v>0.0387157121806795</v>
+      </c>
+      <c r="H93">
+        <v>0.008821130646955956</v>
+      </c>
+      <c r="I93">
+        <v>0.05180208658495969</v>
+      </c>
+      <c r="J93">
+        <v>0.02167512157460277</v>
+      </c>
+      <c r="K93">
+        <v>-0.1368282040301813</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>0.02311469393335897</v>
+        <v>0.08433615870305361</v>
       </c>
       <c r="C94">
-        <v>-0.201700848673874</v>
+        <v>-0.1703022887186607</v>
       </c>
       <c r="D94">
-        <v>0.09434352267347074</v>
+        <v>0.1093427460615212</v>
       </c>
       <c r="E94">
-        <v>-0.1107584787181155</v>
+        <v>0.01996345637274216</v>
       </c>
       <c r="F94">
-        <v>0.04279574103788685</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.07278086535271468</v>
+      </c>
+      <c r="G94">
+        <v>-0.07759552658165164</v>
+      </c>
+      <c r="H94">
+        <v>0.1522497684121667</v>
+      </c>
+      <c r="I94">
+        <v>0.4135488847943678</v>
+      </c>
+      <c r="J94">
+        <v>-0.3063664512096046</v>
+      </c>
+      <c r="K94">
+        <v>0.02831956630204813</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>0.02528729753843909</v>
+        <v>0.04289008042902072</v>
       </c>
       <c r="C95">
-        <v>-0.1326484956286067</v>
+        <v>-0.1323470459706876</v>
       </c>
       <c r="D95">
-        <v>0.05980207665664</v>
+        <v>0.06872253091810303</v>
       </c>
       <c r="E95">
-        <v>-0.1055298604868724</v>
+        <v>0.0179991040545465</v>
       </c>
       <c r="F95">
-        <v>-0.1014316056497669</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.01995644980967004</v>
+      </c>
+      <c r="G95">
+        <v>-0.08185196825889426</v>
+      </c>
+      <c r="H95">
+        <v>-0.1126535443429509</v>
+      </c>
+      <c r="I95">
+        <v>0.001371401814689579</v>
+      </c>
+      <c r="J95">
+        <v>-0.04280818291459532</v>
+      </c>
+      <c r="K95">
+        <v>0.1223035898424542</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,70 +4057,130 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>0.0005000567900654885</v>
+        <v>0.023568274008078</v>
       </c>
       <c r="C97">
-        <v>0.0007178867682195823</v>
+        <v>-0.02768371921104263</v>
       </c>
       <c r="D97">
-        <v>-0.0009457811794864315</v>
+        <v>0.002707899771220536</v>
       </c>
       <c r="E97">
-        <v>-0.001199289942499069</v>
+        <v>-0.04931913175463251</v>
       </c>
       <c r="F97">
-        <v>0.002972095207404965</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>-0.01193841671145058</v>
+      </c>
+      <c r="G97">
+        <v>-0.01779049022746346</v>
+      </c>
+      <c r="H97">
+        <v>0.02077910935125099</v>
+      </c>
+      <c r="I97">
+        <v>-0.008337316083222515</v>
+      </c>
+      <c r="J97">
+        <v>0.03296731585291267</v>
+      </c>
+      <c r="K97">
+        <v>0.05951313239956063</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>0.09303457901330495</v>
+        <v>0.1388085747336253</v>
       </c>
       <c r="C98">
-        <v>-0.1603018006820618</v>
+        <v>-0.1623935099768689</v>
       </c>
       <c r="D98">
-        <v>0.13326913283168</v>
+        <v>0.08669566385001415</v>
       </c>
       <c r="E98">
-        <v>-0.1444613941279899</v>
+        <v>0.07752799082955242</v>
       </c>
       <c r="F98">
-        <v>-0.2005771378993457</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.1544620027042245</v>
+      </c>
+      <c r="G98">
+        <v>-0.1714489984484757</v>
+      </c>
+      <c r="H98">
+        <v>0.1254805819085197</v>
+      </c>
+      <c r="I98">
+        <v>-0.3904888383788037</v>
+      </c>
+      <c r="J98">
+        <v>-0.1424219712114533</v>
+      </c>
+      <c r="K98">
+        <v>-0.112648976075188</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.03630794055827688</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>-0.08147741972881657</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>-0.01176069799748663</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>-0.9369975196868094</v>
       </c>
       <c r="F99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>0.1367147434806766</v>
+      </c>
+      <c r="G99">
+        <v>-0.06058283411139198</v>
+      </c>
+      <c r="H99">
+        <v>0.2115310306546705</v>
+      </c>
+      <c r="I99">
+        <v>-0.03362382515317811</v>
+      </c>
+      <c r="J99">
+        <v>0.07305459036233279</v>
+      </c>
+      <c r="K99">
+        <v>0.06332230008080945</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,50 +4197,95 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>0.008267127902425859</v>
+        <v>0.01785650944163609</v>
       </c>
       <c r="C101">
-        <v>-0.08166764232977264</v>
+        <v>-0.08027976126133073</v>
       </c>
       <c r="D101">
-        <v>0.05762227185854086</v>
+        <v>0.04758440612526722</v>
       </c>
       <c r="E101">
-        <v>0.00316985441321232</v>
+        <v>0.01719948386183015</v>
       </c>
       <c r="F101">
-        <v>-0.02507716168580074</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.0354351433063301</v>
+      </c>
+      <c r="G101">
+        <v>0.02545658030262593</v>
+      </c>
+      <c r="H101">
+        <v>-0.1759920337761787</v>
+      </c>
+      <c r="I101">
+        <v>-0.05833926726555018</v>
+      </c>
+      <c r="J101">
+        <v>0.2548631476564003</v>
+      </c>
+      <c r="K101">
+        <v>0.001102237448453877</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B102">
-        <v>0.0004346168688084701</v>
+        <v>0.0006604377828364005</v>
       </c>
       <c r="C102">
-        <v>-0.0111599096242843</v>
+        <v>-0.005079309994266837</v>
       </c>
       <c r="D102">
-        <v>0.001991676596728491</v>
+        <v>-0.0003759696097216233</v>
       </c>
       <c r="E102">
-        <v>-0.01283594033968794</v>
+        <v>0.002858720190076198</v>
       </c>
       <c r="F102">
-        <v>-0.0151540419440646</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.006707935799595272</v>
+      </c>
+      <c r="G102">
+        <v>-0.003366145057781649</v>
+      </c>
+      <c r="H102">
+        <v>-0.003723745706912929</v>
+      </c>
+      <c r="I102">
+        <v>-0.0004308409590072821</v>
+      </c>
+      <c r="J102">
+        <v>0.003087443429871676</v>
+      </c>
+      <c r="K102">
+        <v>0.02101510575254739</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2757,10 +4302,25 @@
       <c r="F103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +4335,21 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
